--- a/raw_data/NFL_2016_label.xlsx
+++ b/raw_data/NFL_2016_label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethfilo/Documents/Gov 50/FinalProject/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B825D-42BB-394D-BA9A-ECF5B78AA9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0834DE-E10A-2242-9414-38826DF90D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>LAR</t>
   </si>
   <si>
-    <t>Jared Goff\GoffJa00</t>
-  </si>
-  <si>
     <t>QB</t>
   </si>
   <si>
@@ -142,18 +139,12 @@
     <t>PHI</t>
   </si>
   <si>
-    <t>Carson Wentz\WentCa00</t>
-  </si>
-  <si>
     <t>North Dakota St.</t>
   </si>
   <si>
     <t>SDG</t>
   </si>
   <si>
-    <t>Joey Bosa\BosaJo00</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -163,18 +154,12 @@
     <t>DAL</t>
   </si>
   <si>
-    <t>Ezekiel Elliott\ElliEz00</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
     <t>JAX</t>
   </si>
   <si>
-    <t>Jalen Ramsey\RamsJa00</t>
-  </si>
-  <si>
     <t>CB</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>BAL</t>
   </si>
   <si>
-    <t>Ronnie Stanley\StanRo00</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -196,27 +178,18 @@
     <t>SFO</t>
   </si>
   <si>
-    <t>DeForest Buckner\BuckDe00</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
     <t>TEN</t>
   </si>
   <si>
-    <t>Jack Conklin\ConkJa00</t>
-  </si>
-  <si>
     <t>Michigan St.</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>Leonard Floyd\FloyLe00</t>
-  </si>
-  <si>
     <t>OLB</t>
   </si>
   <si>
@@ -226,24 +199,15 @@
     <t>NYG</t>
   </si>
   <si>
-    <t>Eli Apple\ApplEl00</t>
-  </si>
-  <si>
     <t>TAM</t>
   </si>
   <si>
-    <t>Vernon Hargreaves III\HargVe00</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Sheldon Rankins\RankSh00</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
@@ -253,18 +217,12 @@
     <t>MIA</t>
   </si>
   <si>
-    <t>Laremy Tunsil\TunsLa00</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
     <t>OAK</t>
   </si>
   <si>
-    <t>Karl Joseph\JoseKa00</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -274,9 +232,6 @@
     <t>CLE</t>
   </si>
   <si>
-    <t>Corey Coleman\ColeCo00</t>
-  </si>
-  <si>
     <t>WR</t>
   </si>
   <si>
@@ -286,21 +241,12 @@
     <t>DET</t>
   </si>
   <si>
-    <t>Taylor Decker\DeckTa00</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>Keanu Neal\NealKe01</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>Ryan Kelly\KellRy00</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -310,1039 +256,1093 @@
     <t>BUF</t>
   </si>
   <si>
-    <t>Shaq Lawson\LawsSh00</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
     <t>NYJ</t>
   </si>
   <si>
-    <t>Darron Lee\LeexDa00</t>
-  </si>
-  <si>
     <t>HOU</t>
   </si>
   <si>
-    <t>Will Fuller\FullWi01</t>
-  </si>
-  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>Josh Doctson\DoctJo00</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>Laquon Treadwell\TreaLa00</t>
-  </si>
-  <si>
     <t>CIN</t>
   </si>
   <si>
-    <t>William Jackson III\JackWi02</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
     <t>PIT</t>
   </si>
   <si>
-    <t>Artie Burns\BurnAr00</t>
-  </si>
-  <si>
     <t>Miami (FL)</t>
   </si>
   <si>
     <t>DEN</t>
   </si>
   <si>
-    <t>Paxton Lynch\LyncPa00</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Kenny Clark\ClarKe01</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Joshua Garnett\GarnJo00</t>
-  </si>
-  <si>
     <t>Stanford</t>
   </si>
   <si>
     <t>ARI</t>
   </si>
   <si>
-    <t>Robert Nkemdiche\NkemRo00</t>
-  </si>
-  <si>
     <t>CAR</t>
   </si>
   <si>
-    <t>Vernon Butler\ButlVe00</t>
-  </si>
-  <si>
     <t>Louisiana Tech</t>
   </si>
   <si>
     <t>SEA</t>
   </si>
   <si>
-    <t>Germain Ifedi\IfedGe00</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Emmanuel Ogbah\OgbaEm00</t>
-  </si>
-  <si>
     <t>Oklahoma St.</t>
   </si>
   <si>
-    <t>Kevin Dodd\DoddKe00</t>
-  </si>
-  <si>
-    <t>Jaylon Smith\SmitJa05</t>
-  </si>
-  <si>
-    <t>Hunter Henry\HenrHu00</t>
-  </si>
-  <si>
     <t>TE</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>Myles Jack\JackMy00</t>
-  </si>
-  <si>
     <t>KAN</t>
   </si>
   <si>
-    <t>Chris Jones\JoneCh09</t>
-  </si>
-  <si>
     <t>Mississippi St.</t>
   </si>
   <si>
-    <t>Xavien Howard\HowaXa00</t>
-  </si>
-  <si>
-    <t>Noah Spence\SpenNo00</t>
-  </si>
-  <si>
     <t>East. Kentucky</t>
   </si>
   <si>
-    <t>Sterling Shepard\ShepSt00</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Reggie Ragland\RaglRe00</t>
-  </si>
-  <si>
     <t>ILB</t>
   </si>
   <si>
-    <t>Kamalei Correa\CorrKa00</t>
-  </si>
-  <si>
     <t>Boise St.</t>
   </si>
   <si>
-    <t>Austin Johnson\JohnAu01</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
     <t>Penn St.</t>
   </si>
   <si>
-    <t>Jihad Ward\WardJi02</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
-    <t>Derrick Henry\HenrDe00</t>
-  </si>
-  <si>
-    <t>A'Shawn Robinson\RobiAS00</t>
-  </si>
-  <si>
-    <t>Michael Thomas\ThomMi05</t>
-  </si>
-  <si>
-    <t>Jason Spriggs\SpriJa00</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>Jarran Reed\ReedJa02</t>
-  </si>
-  <si>
-    <t>Nick Martin\MartNi00</t>
-  </si>
-  <si>
-    <t>Christian Hackenberg\HackCh01</t>
-  </si>
-  <si>
-    <t>Deion Jones\JoneDe01</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>Su'a Cravens\CravSu00</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Mackensie Alexander\AlexMa01</t>
-  </si>
-  <si>
-    <t>Tyler Boyd\BoydTy00</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Cody Whitehair\WhitCo03</t>
-  </si>
-  <si>
     <t>Kansas St.</t>
   </si>
   <si>
-    <t>T.J. Green\GreeT.00</t>
-  </si>
-  <si>
-    <t>Sean Davis\DaviSe00</t>
-  </si>
-  <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Roberto Aguayo\AguaRo00</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>NWE</t>
   </si>
   <si>
-    <t>Cyrus Jones\JoneCy00</t>
-  </si>
-  <si>
-    <t>Vonn Bell\BellVo00</t>
-  </si>
-  <si>
-    <t>James Bradberry\BradJa00</t>
-  </si>
-  <si>
     <t>Samford</t>
   </si>
   <si>
-    <t>Adam Gotsis\GotsAd00</t>
-  </si>
-  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Kevin Byard\ByarKe01</t>
-  </si>
-  <si>
     <t>Middle Tenn. St.</t>
   </si>
   <si>
-    <t>Carl Nassib\NassCa00</t>
-  </si>
-  <si>
-    <t>Max Tuerk\TuerMa00</t>
-  </si>
-  <si>
-    <t>Maliek Collins\CollMa00</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Will Redmond\RedmWi00</t>
-  </si>
-  <si>
-    <t>Yannick Ngakoue\NgakYa00</t>
-  </si>
-  <si>
-    <t>Bronson Kaufusi\KaufBr01</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
-    <t>Darian Thompson\ThomDa05</t>
-  </si>
-  <si>
-    <t>Jonathan Bullard\BullJo00</t>
-  </si>
-  <si>
-    <t>Kenyan Drake\DrakKe00</t>
-  </si>
-  <si>
-    <t>KeiVarae Russell\RussKe00</t>
-  </si>
-  <si>
-    <t>Shilique Calhoun\CalhSh00</t>
-  </si>
-  <si>
-    <t>Shon Coleman\ColeSh00</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>Daryl Worley\WorlDa00</t>
-  </si>
-  <si>
-    <t>Joe Thuney\ThunJo00</t>
-  </si>
-  <si>
     <t>North Carolina St.</t>
   </si>
   <si>
-    <t>Isaac Seumalo\SeumIs00</t>
-  </si>
-  <si>
     <t>Oregon St.</t>
   </si>
   <si>
-    <t>Adolphus Washington\WashAd00</t>
-  </si>
-  <si>
-    <t>Austin Hooper\HoopAu00</t>
-  </si>
-  <si>
-    <t>Le'Raven Clark\ClarLe01</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Jordan Jenkins\JenkJo01</t>
-  </si>
-  <si>
-    <t>Kendall Fuller\FullKe00</t>
-  </si>
-  <si>
     <t>Virginia Tech</t>
   </si>
   <si>
-    <t>Braxton Miller\MillBr03</t>
-  </si>
-  <si>
-    <t>Leonte Carroo\CarrLe00</t>
-  </si>
-  <si>
     <t>Rutgers</t>
   </si>
   <si>
-    <t>Nick Vigil\VigiNi00</t>
-  </si>
-  <si>
     <t>Utah St.</t>
   </si>
   <si>
-    <t>Kyler Fackrell\FackKy00</t>
-  </si>
-  <si>
-    <t>Javon Hargrave\HargJa00</t>
-  </si>
-  <si>
     <t>South Carolina St.</t>
   </si>
   <si>
-    <t>C.J. Prosise\ProsC.00</t>
-  </si>
-  <si>
-    <t>Jacoby Brissett\BrisJa00</t>
-  </si>
-  <si>
-    <t>Brandon Williams\WillBr07</t>
-  </si>
-  <si>
-    <t>Cody Kessler\KessCo00</t>
-  </si>
-  <si>
-    <t>Nick Vannett\VannNi00</t>
-  </si>
-  <si>
-    <t>Graham Glasgow\GlasGr00</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Vincent Valentine\ValeVi00</t>
-  </si>
-  <si>
-    <t>Rees Odhiambo\OdhiRe00</t>
-  </si>
-  <si>
-    <t>Justin Simmons\SimmJu00</t>
-  </si>
-  <si>
     <t>Boston Col.</t>
   </si>
   <si>
-    <t>Joe Schobert\SchoJo00</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Connor Cook\CookCo00</t>
-  </si>
-  <si>
-    <t>Charles Tapper\TappCh00</t>
-  </si>
-  <si>
-    <t>Joshua Perry\PerrJo01</t>
-  </si>
-  <si>
-    <t>Sheldon Day\DayxSh00</t>
-  </si>
-  <si>
-    <t>Tavon Young\YounTa01</t>
-  </si>
-  <si>
     <t>Temple</t>
   </si>
   <si>
-    <t>Parker Ehinger\EhinPa00</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Eric Murray\MurrEr00</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Chris Moore\MoorCh00</t>
-  </si>
-  <si>
-    <t>Ryan Smith\SmitRy00</t>
-  </si>
-  <si>
     <t>North Carolina Central</t>
   </si>
   <si>
-    <t>B.J. Goodson\GoodB.00</t>
-  </si>
-  <si>
-    <t>Tyler Higbee\HigbTy00</t>
-  </si>
-  <si>
     <t>Western Kentucky</t>
   </si>
   <si>
-    <t>Miles Killebrew\KillMi00</t>
-  </si>
-  <si>
     <t>Southern Utah</t>
   </si>
   <si>
-    <t>Malcolm Mitchell\MitcMa01</t>
-  </si>
-  <si>
-    <t>Nick Kwiatkoski\KwiaNi00</t>
-  </si>
-  <si>
-    <t>Ricardo Louis\LouiRi00</t>
-  </si>
-  <si>
-    <t>De'Vondre Campbell\CampDe00</t>
-  </si>
-  <si>
-    <t>Hassan Ridgeway\RidgHa00</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Pharoh Cooper\CoopPh00</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Juston Burris\BurrJu00</t>
-  </si>
-  <si>
-    <t>Tyler Ervin\ErviTy00</t>
-  </si>
-  <si>
     <t>San Jose St.</t>
   </si>
   <si>
-    <t>David Onyemata\OnyeDa00</t>
-  </si>
-  <si>
     <t>Manitoba</t>
   </si>
   <si>
-    <t>Willie Beavers\BeavWi00</t>
-  </si>
-  <si>
     <t>West. Michigan</t>
   </si>
   <si>
-    <t>Andrew Billings\BillAn00</t>
-  </si>
-  <si>
-    <t>Jerald Hawkins\HawkJe00</t>
-  </si>
-  <si>
-    <t>Deon Bush\BushDe00</t>
-  </si>
-  <si>
-    <t>Antonio Morrison\MorrAn01</t>
-  </si>
-  <si>
-    <t>Demarcus Robinson\RobiDe01</t>
-  </si>
-  <si>
-    <t>Deiondre' Hall\HallDe02</t>
-  </si>
-  <si>
     <t>Northern Iowa</t>
   </si>
   <si>
-    <t>Evan Boehm\BoehEv00</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Derrick Kindred\KindDe00</t>
-  </si>
-  <si>
-    <t>Alex Lewis\LewiAl01</t>
-  </si>
-  <si>
-    <t>Blake Martinez\MartBl01</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
-    <t>Willie Henry\HenrWi00</t>
-  </si>
-  <si>
-    <t>Rashard Robinson\RobiRa00</t>
-  </si>
-  <si>
-    <t>Kenneth Dixon\DixoKe00</t>
-  </si>
-  <si>
-    <t>Dak Prescott\PresDa01</t>
-  </si>
-  <si>
-    <t>Devontae Booker\BookDe00</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>Dean Lowry\LowrDe00</t>
-  </si>
-  <si>
     <t>Northwestern</t>
   </si>
   <si>
-    <t>Seth Devalve\DevaSe00</t>
-  </si>
-  <si>
     <t>Princeton</t>
   </si>
   <si>
-    <t>Cardale Jones\JoneCa01</t>
-  </si>
-  <si>
-    <t>Tajae Sharpe\SharTa00</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Zack Sanchez\SancZa00</t>
-  </si>
-  <si>
-    <t>Ronald Blair\BlaiRo00</t>
-  </si>
-  <si>
     <t>Appalachian St.</t>
   </si>
   <si>
-    <t>DeAndre Washington\WashDe00</t>
-  </si>
-  <si>
-    <t>Connor McGovern\McGoCo00</t>
-  </si>
-  <si>
-    <t>John Theus\TheuJo00</t>
-  </si>
-  <si>
-    <t>Matt Judon\JudoMa00</t>
-  </si>
-  <si>
     <t>Grand Valley St.</t>
   </si>
   <si>
-    <t>Quinton Jefferson\JeffQu00</t>
-  </si>
-  <si>
-    <t>Caleb Benenoch\BeneCa00</t>
-  </si>
-  <si>
-    <t>Paul Perkins\PerkPa00</t>
-  </si>
-  <si>
-    <t>Jordan Howard\HowaJo00</t>
-  </si>
-  <si>
-    <t>Joe Dahl\DahlJo00</t>
-  </si>
-  <si>
     <t>Washington St.</t>
   </si>
   <si>
-    <t>Matthew Ioannidis\IoanMa01</t>
-  </si>
-  <si>
-    <t>Wendell Smallwood\SmalWe00</t>
-  </si>
-  <si>
-    <t>Jordan Payton\PaytJo00</t>
-  </si>
-  <si>
-    <t>Joe Haeg\HaegJo00</t>
-  </si>
-  <si>
-    <t>Jonathan Williams\WillJo07</t>
-  </si>
-  <si>
-    <t>LeShaun Sims\SimsLe00</t>
-  </si>
-  <si>
-    <t>Brandon Shell\ShelBr00</t>
-  </si>
-  <si>
-    <t>K.J. Dillon\DillK.00</t>
-  </si>
-  <si>
-    <t>Kentrell Brothers\BrotKe00</t>
-  </si>
-  <si>
-    <t>Christian Westerman\WestCh02</t>
-  </si>
-  <si>
     <t>Arizona St.</t>
   </si>
   <si>
-    <t>Kevin Hogan\HogaKe00</t>
-  </si>
-  <si>
-    <t>Trevor Davis\DaviTr03</t>
-  </si>
-  <si>
-    <t>Halapoulivaati Vaitai\VaitHa00</t>
-  </si>
-  <si>
-    <t>Tyreek Hill\HillTy00</t>
-  </si>
-  <si>
     <t>West Alabama</t>
   </si>
   <si>
-    <t>D.J. Reader\ReadD.00</t>
-  </si>
-  <si>
-    <t>Marqui Christian\ChriMa00</t>
-  </si>
-  <si>
     <t>Midwestern St.</t>
   </si>
   <si>
-    <t>Spencer Drango\DranSp00</t>
-  </si>
-  <si>
-    <t>Antwione Williams\WillAn01</t>
-  </si>
-  <si>
     <t>Georgia Southern</t>
   </si>
   <si>
-    <t>Cole Toner\ToneCo00</t>
-  </si>
-  <si>
     <t>Harvard</t>
   </si>
   <si>
-    <t>Alex Collins\CollAl00</t>
-  </si>
-  <si>
-    <t>Rashard Higgins\HiggRa00</t>
-  </si>
-  <si>
     <t>Colorado St.</t>
   </si>
   <si>
-    <t>Trey Caldwell\CaldTr00</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
     <t>La-Monroe</t>
   </si>
   <si>
-    <t>Fahn Cooper\CoopFa00</t>
-  </si>
-  <si>
-    <t>Jatavis Brown\BrowJa05</t>
-  </si>
-  <si>
     <t>Akron</t>
   </si>
   <si>
-    <t>Andy Janovich\JanoAn00</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
-    <t>Temarrick Hemingway\HemiTe00</t>
-  </si>
-  <si>
-    <t>D.J. White\WhitD.00</t>
-  </si>
-  <si>
-    <t>Drew Kaser\KaseDr00</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Moritz Boehringer\BoehMo00</t>
-  </si>
-  <si>
-    <t>Tyrone Holmes\HolmTy01</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
-    <t>Keenan Reynolds\ReynKe00</t>
-  </si>
-  <si>
     <t>Navy</t>
   </si>
   <si>
-    <t>Devante Bond\BondDe00</t>
-  </si>
-  <si>
-    <t>Jerell Adams\AdamJe01</t>
-  </si>
-  <si>
-    <t>DeAndre Houston-Carson\HousDe00</t>
-  </si>
-  <si>
     <t>William &amp; Mary</t>
   </si>
   <si>
-    <t>Jakeem Grant\GranJa00</t>
-  </si>
-  <si>
-    <t>Nate Sudfeld\SudfNa00</t>
-  </si>
-  <si>
-    <t>David Morgan\MorgDa01</t>
-  </si>
-  <si>
     <t>Texas-San Antonio</t>
   </si>
   <si>
-    <t>Anthony Brown\BrowAn02</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
-    <t>Josh Forrest\ForrJo00</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Jake Rudock\RudoJa00</t>
-  </si>
-  <si>
-    <t>Kolby Listenbee\ListKo00</t>
-  </si>
-  <si>
-    <t>Sebastian Tretola\TretSe00</t>
-  </si>
-  <si>
-    <t>Cory James\JameCo00</t>
-  </si>
-  <si>
-    <t>Wes Schweitzer\SchwWe00</t>
-  </si>
-  <si>
-    <t>Blake Countess\CounBl00</t>
-  </si>
-  <si>
-    <t>Danny Vitale\VitaDa00</t>
-  </si>
-  <si>
-    <t>Derek Watt\WattDe00</t>
-  </si>
-  <si>
-    <t>Cody Core\CoreCo00</t>
-  </si>
-  <si>
-    <t>Kyle Murphy\MurpKy00</t>
-  </si>
-  <si>
-    <t>Brandon Allen\AlleBr00</t>
-  </si>
-  <si>
-    <t>Anthony Zettel\ZettAn00</t>
-  </si>
-  <si>
-    <t>Dadi Nicolas\NicoDa00</t>
-  </si>
-  <si>
-    <t>Jordan Lucas\LucaJo00</t>
-  </si>
-  <si>
-    <t>Harlan Miller\MillHa00</t>
-  </si>
-  <si>
     <t>Southeastern Louisiana</t>
   </si>
   <si>
-    <t>Mike Thomas\ThomMi04</t>
-  </si>
-  <si>
     <t>Southern Miss</t>
   </si>
   <si>
-    <t>Jeff Driskel\DrisJe00</t>
-  </si>
-  <si>
-    <t>Kamu Grugier-Hill\GrugKa00</t>
-  </si>
-  <si>
     <t>East. Illinois</t>
   </si>
   <si>
-    <t>Maurice Canady\CanaMa00</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Jimmy Landes\LandJi00</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
-    <t>Kelvin Taylor\TaylKe01</t>
-  </si>
-  <si>
-    <t>Kavon Frazier\FrazKa00</t>
-  </si>
-  <si>
     <t>Central Michigan</t>
   </si>
   <si>
-    <t>Aaron Burbridge\BurbAa00</t>
-  </si>
-  <si>
-    <t>Elandon Roberts\RobeEl00</t>
-  </si>
-  <si>
-    <t>Joey Hunt\HuntJo00</t>
-  </si>
-  <si>
-    <t>Darius Jackson\JackDa01</t>
-  </si>
-  <si>
     <t>East. Michigan</t>
   </si>
   <si>
-    <t>Rico Gathers\GathRi00</t>
-  </si>
-  <si>
-    <t>Kevon Seymour\SeymKe00</t>
-  </si>
-  <si>
-    <t>Will Parks\ParkWi01</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Travis Feeney\FeenTr00</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Ted Karras\KarrTe00</t>
-  </si>
-  <si>
-    <t>Aaron Wallace\WallAa00</t>
-  </si>
-  <si>
-    <t>Brandon Doughty\DougBr00</t>
-  </si>
-  <si>
-    <t>Donavon Clark\ClarDo00</t>
-  </si>
-  <si>
-    <t>Devin Lucien\LuciDe00</t>
-  </si>
-  <si>
-    <t>Jonathan Woodard\WoodJo00</t>
-  </si>
-  <si>
     <t>Central Arkansas</t>
   </si>
   <si>
-    <t>Stephen Weatherly\WeatSt00</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Riley Dixon\DixoRi00</t>
-  </si>
-  <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>Demarcus Ayers\AyerDe00</t>
-  </si>
-  <si>
-    <t>Daniel Braverman\BravDa00</t>
-  </si>
-  <si>
-    <t>Thomas Duarte\DuarTh00</t>
-  </si>
-  <si>
-    <t>Steven Daniels\DaniSt00</t>
-  </si>
-  <si>
-    <t>Jalen Mills\MillJa02</t>
-  </si>
-  <si>
-    <t>Vadal Alexander\AlexVa00</t>
-  </si>
-  <si>
-    <t>Lac Edwards\EdwaLa01</t>
-  </si>
-  <si>
     <t>Sam Houston St.</t>
   </si>
   <si>
-    <t>Dwayne Washington\WashDw00</t>
-  </si>
-  <si>
-    <t>Daniel Lasco\LascDa00</t>
-  </si>
-  <si>
-    <t>Devin Fuller\FullDe00</t>
-  </si>
-  <si>
-    <t>Trevor Bates\BateTr00</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
-    <t>Alex McCalister\McCaAl00</t>
-  </si>
-  <si>
-    <t>Charone Peake\PeakCh00</t>
-  </si>
-  <si>
-    <t>Keith Marshall\MarsKe00</t>
-  </si>
-  <si>
-    <t>Kenny Lawler\LawlKe00</t>
-  </si>
-  <si>
-    <t>Jayron Kearse\KearJa00</t>
-  </si>
-  <si>
-    <t>Clayton Fejedelem\FejeCl00</t>
-  </si>
-  <si>
-    <t>Tyler Matakevich\MataTy00</t>
-  </si>
-  <si>
-    <t>Zac Brooks\BrooZa00</t>
-  </si>
-  <si>
-    <t>Austin Blythe\BlytAu00</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>Prince Charles Iworah\IworPr00</t>
-  </si>
-  <si>
-    <t>Scooby Wright III\WrigSc00</t>
-  </si>
-  <si>
-    <t>Joe Walker\WalkJo01</t>
-  </si>
-  <si>
-    <t>Beau Sandland\SandBe00</t>
-  </si>
-  <si>
     <t>Montana St.</t>
   </si>
   <si>
-    <t>Kalan Reed\ReedKa00</t>
+    <t>Carson Wentz WentCa00</t>
+  </si>
+  <si>
+    <t>Joey Bosa BosaJo00</t>
+  </si>
+  <si>
+    <t>Ezekiel Elliott ElliEz00</t>
+  </si>
+  <si>
+    <t>Jalen Ramsey RamsJa00</t>
+  </si>
+  <si>
+    <t>Ronnie Stanley StanRo00</t>
+  </si>
+  <si>
+    <t>DeForest Buckner BuckDe00</t>
+  </si>
+  <si>
+    <t>Jack Conklin ConkJa00</t>
+  </si>
+  <si>
+    <t>Leonard Floyd FloyLe00</t>
+  </si>
+  <si>
+    <t>Eli Apple ApplEl00</t>
+  </si>
+  <si>
+    <t>Vernon Hargreaves III HargVe00</t>
+  </si>
+  <si>
+    <t>Sheldon Rankins RankSh00</t>
+  </si>
+  <si>
+    <t>Laremy Tunsil TunsLa00</t>
+  </si>
+  <si>
+    <t>Karl Joseph JoseKa00</t>
+  </si>
+  <si>
+    <t>Corey Coleman ColeCo00</t>
+  </si>
+  <si>
+    <t>Taylor Decker DeckTa00</t>
+  </si>
+  <si>
+    <t>Keanu Neal NealKe01</t>
+  </si>
+  <si>
+    <t>Ryan Kelly KellRy00</t>
+  </si>
+  <si>
+    <t>Shaq Lawson LawsSh00</t>
+  </si>
+  <si>
+    <t>Darron Lee LeexDa00</t>
+  </si>
+  <si>
+    <t>Will Fuller FullWi01</t>
+  </si>
+  <si>
+    <t>Josh Doctson DoctJo00</t>
+  </si>
+  <si>
+    <t>Laquon Treadwell TreaLa00</t>
+  </si>
+  <si>
+    <t>William Jackson III JackWi02</t>
+  </si>
+  <si>
+    <t>Artie Burns BurnAr00</t>
+  </si>
+  <si>
+    <t>Paxton Lynch LyncPa00</t>
+  </si>
+  <si>
+    <t>Kenny Clark ClarKe01</t>
+  </si>
+  <si>
+    <t>Joshua Garnett GarnJo00</t>
+  </si>
+  <si>
+    <t>Robert Nkemdiche NkemRo00</t>
+  </si>
+  <si>
+    <t>Vernon Butler ButlVe00</t>
+  </si>
+  <si>
+    <t>Germain Ifedi IfedGe00</t>
+  </si>
+  <si>
+    <t>Emmanuel Ogbah OgbaEm00</t>
+  </si>
+  <si>
+    <t>Kevin Dodd DoddKe00</t>
+  </si>
+  <si>
+    <t>Jaylon Smith SmitJa05</t>
+  </si>
+  <si>
+    <t>Hunter Henry HenrHu00</t>
+  </si>
+  <si>
+    <t>Myles Jack JackMy00</t>
+  </si>
+  <si>
+    <t>Chris Jones JoneCh09</t>
+  </si>
+  <si>
+    <t>Xavien Howard HowaXa00</t>
+  </si>
+  <si>
+    <t>Noah Spence SpenNo00</t>
+  </si>
+  <si>
+    <t>Sterling Shepard ShepSt00</t>
+  </si>
+  <si>
+    <t>Reggie Ragland RaglRe00</t>
+  </si>
+  <si>
+    <t>Kamalei Correa CorrKa00</t>
+  </si>
+  <si>
+    <t>Austin Johnson JohnAu01</t>
+  </si>
+  <si>
+    <t>Jihad Ward WardJi02</t>
+  </si>
+  <si>
+    <t>Derrick Henry HenrDe00</t>
+  </si>
+  <si>
+    <t>A'Shawn Robinson RobiAS00</t>
+  </si>
+  <si>
+    <t>Michael Thomas ThomMi05</t>
+  </si>
+  <si>
+    <t>Jason Spriggs SpriJa00</t>
+  </si>
+  <si>
+    <t>Jarran Reed ReedJa02</t>
+  </si>
+  <si>
+    <t>Nick Martin MartNi00</t>
+  </si>
+  <si>
+    <t>Christian Hackenberg HackCh01</t>
+  </si>
+  <si>
+    <t>Deion Jones JoneDe01</t>
+  </si>
+  <si>
+    <t>Su'a Cravens CravSu00</t>
+  </si>
+  <si>
+    <t>Mackensie Alexander AlexMa01</t>
+  </si>
+  <si>
+    <t>Tyler Boyd BoydTy00</t>
+  </si>
+  <si>
+    <t>Cody Whitehair WhitCo03</t>
+  </si>
+  <si>
+    <t>T.J. Green GreeT.00</t>
+  </si>
+  <si>
+    <t>Sean Davis DaviSe00</t>
+  </si>
+  <si>
+    <t>Roberto Aguayo AguaRo00</t>
+  </si>
+  <si>
+    <t>Cyrus Jones JoneCy00</t>
+  </si>
+  <si>
+    <t>Vonn Bell BellVo00</t>
+  </si>
+  <si>
+    <t>James Bradberry BradJa00</t>
+  </si>
+  <si>
+    <t>Adam Gotsis GotsAd00</t>
+  </si>
+  <si>
+    <t>Kevin Byard ByarKe01</t>
+  </si>
+  <si>
+    <t>Carl Nassib NassCa00</t>
+  </si>
+  <si>
+    <t>Max Tuerk TuerMa00</t>
+  </si>
+  <si>
+    <t>Maliek Collins CollMa00</t>
+  </si>
+  <si>
+    <t>Will Redmond RedmWi00</t>
+  </si>
+  <si>
+    <t>Yannick Ngakoue NgakYa00</t>
+  </si>
+  <si>
+    <t>Bronson Kaufusi KaufBr01</t>
+  </si>
+  <si>
+    <t>Darian Thompson ThomDa05</t>
+  </si>
+  <si>
+    <t>Jonathan Bullard BullJo00</t>
+  </si>
+  <si>
+    <t>Kenyan Drake DrakKe00</t>
+  </si>
+  <si>
+    <t>KeiVarae Russell RussKe00</t>
+  </si>
+  <si>
+    <t>Shilique Calhoun CalhSh00</t>
+  </si>
+  <si>
+    <t>Shon Coleman ColeSh00</t>
+  </si>
+  <si>
+    <t>Daryl Worley WorlDa00</t>
+  </si>
+  <si>
+    <t>Joe Thuney ThunJo00</t>
+  </si>
+  <si>
+    <t>Isaac Seumalo SeumIs00</t>
+  </si>
+  <si>
+    <t>Adolphus Washington WashAd00</t>
+  </si>
+  <si>
+    <t>Austin Hooper HoopAu00</t>
+  </si>
+  <si>
+    <t>Le'Raven Clark ClarLe01</t>
+  </si>
+  <si>
+    <t>Jordan Jenkins JenkJo01</t>
+  </si>
+  <si>
+    <t>Kendall Fuller FullKe00</t>
+  </si>
+  <si>
+    <t>Braxton Miller MillBr03</t>
+  </si>
+  <si>
+    <t>Leonte Carroo CarrLe00</t>
+  </si>
+  <si>
+    <t>Nick Vigil VigiNi00</t>
+  </si>
+  <si>
+    <t>Kyler Fackrell FackKy00</t>
+  </si>
+  <si>
+    <t>Javon Hargrave HargJa00</t>
+  </si>
+  <si>
+    <t>C.J. Prosise ProsC.00</t>
+  </si>
+  <si>
+    <t>Jacoby Brissett BrisJa00</t>
+  </si>
+  <si>
+    <t>Brandon Williams WillBr07</t>
+  </si>
+  <si>
+    <t>Cody Kessler KessCo00</t>
+  </si>
+  <si>
+    <t>Nick Vannett VannNi00</t>
+  </si>
+  <si>
+    <t>Graham Glasgow GlasGr00</t>
+  </si>
+  <si>
+    <t>Vincent Valentine ValeVi00</t>
+  </si>
+  <si>
+    <t>Rees Odhiambo OdhiRe00</t>
+  </si>
+  <si>
+    <t>Justin Simmons SimmJu00</t>
+  </si>
+  <si>
+    <t>Joe Schobert SchoJo00</t>
+  </si>
+  <si>
+    <t>Connor Cook CookCo00</t>
+  </si>
+  <si>
+    <t>Charles Tapper TappCh00</t>
+  </si>
+  <si>
+    <t>Joshua Perry PerrJo01</t>
+  </si>
+  <si>
+    <t>Sheldon Day DayxSh00</t>
+  </si>
+  <si>
+    <t>Tavon Young YounTa01</t>
+  </si>
+  <si>
+    <t>Parker Ehinger EhinPa00</t>
+  </si>
+  <si>
+    <t>Eric Murray MurrEr00</t>
+  </si>
+  <si>
+    <t>Chris Moore MoorCh00</t>
+  </si>
+  <si>
+    <t>Ryan Smith SmitRy00</t>
+  </si>
+  <si>
+    <t>B.J. Goodson GoodB.00</t>
+  </si>
+  <si>
+    <t>Tyler Higbee HigbTy00</t>
+  </si>
+  <si>
+    <t>Miles Killebrew KillMi00</t>
+  </si>
+  <si>
+    <t>Malcolm Mitchell MitcMa01</t>
+  </si>
+  <si>
+    <t>Nick Kwiatkoski KwiaNi00</t>
+  </si>
+  <si>
+    <t>Ricardo Louis LouiRi00</t>
+  </si>
+  <si>
+    <t>De'Vondre Campbell CampDe00</t>
+  </si>
+  <si>
+    <t>Hassan Ridgeway RidgHa00</t>
+  </si>
+  <si>
+    <t>Pharoh Cooper CoopPh00</t>
+  </si>
+  <si>
+    <t>Juston Burris BurrJu00</t>
+  </si>
+  <si>
+    <t>Tyler Ervin ErviTy00</t>
+  </si>
+  <si>
+    <t>David Onyemata OnyeDa00</t>
+  </si>
+  <si>
+    <t>Willie Beavers BeavWi00</t>
+  </si>
+  <si>
+    <t>Andrew Billings BillAn00</t>
+  </si>
+  <si>
+    <t>Jerald Hawkins HawkJe00</t>
+  </si>
+  <si>
+    <t>Deon Bush BushDe00</t>
+  </si>
+  <si>
+    <t>Antonio Morrison MorrAn01</t>
+  </si>
+  <si>
+    <t>Demarcus Robinson RobiDe01</t>
+  </si>
+  <si>
+    <t>Deiondre' Hall HallDe02</t>
+  </si>
+  <si>
+    <t>Evan Boehm BoehEv00</t>
+  </si>
+  <si>
+    <t>Derrick Kindred KindDe00</t>
+  </si>
+  <si>
+    <t>Alex Lewis LewiAl01</t>
+  </si>
+  <si>
+    <t>Blake Martinez MartBl01</t>
+  </si>
+  <si>
+    <t>Willie Henry HenrWi00</t>
+  </si>
+  <si>
+    <t>Rashard Robinson RobiRa00</t>
+  </si>
+  <si>
+    <t>Kenneth Dixon DixoKe00</t>
+  </si>
+  <si>
+    <t>Dak Prescott PresDa01</t>
+  </si>
+  <si>
+    <t>Devontae Booker BookDe00</t>
+  </si>
+  <si>
+    <t>Dean Lowry LowrDe00</t>
+  </si>
+  <si>
+    <t>Seth Devalve DevaSe00</t>
+  </si>
+  <si>
+    <t>Cardale Jones JoneCa01</t>
+  </si>
+  <si>
+    <t>Tajae Sharpe SharTa00</t>
+  </si>
+  <si>
+    <t>Zack Sanchez SancZa00</t>
+  </si>
+  <si>
+    <t>Ronald Blair BlaiRo00</t>
+  </si>
+  <si>
+    <t>DeAndre Washington WashDe00</t>
+  </si>
+  <si>
+    <t>Connor McGovern McGoCo00</t>
+  </si>
+  <si>
+    <t>John Theus TheuJo00</t>
+  </si>
+  <si>
+    <t>Matt Judon JudoMa00</t>
+  </si>
+  <si>
+    <t>Quinton Jefferson JeffQu00</t>
+  </si>
+  <si>
+    <t>Caleb Benenoch BeneCa00</t>
+  </si>
+  <si>
+    <t>Paul Perkins PerkPa00</t>
+  </si>
+  <si>
+    <t>Jordan Howard HowaJo00</t>
+  </si>
+  <si>
+    <t>Joe Dahl DahlJo00</t>
+  </si>
+  <si>
+    <t>Matthew Ioannidis IoanMa01</t>
+  </si>
+  <si>
+    <t>Wendell Smallwood SmalWe00</t>
+  </si>
+  <si>
+    <t>Jordan Payton PaytJo00</t>
+  </si>
+  <si>
+    <t>Joe Haeg HaegJo00</t>
+  </si>
+  <si>
+    <t>Jonathan Williams WillJo07</t>
+  </si>
+  <si>
+    <t>LeShaun Sims SimsLe00</t>
+  </si>
+  <si>
+    <t>Brandon Shell ShelBr00</t>
+  </si>
+  <si>
+    <t>K.J. Dillon DillK.00</t>
+  </si>
+  <si>
+    <t>Kentrell Brothers BrotKe00</t>
+  </si>
+  <si>
+    <t>Christian Westerman WestCh02</t>
+  </si>
+  <si>
+    <t>Kevin Hogan HogaKe00</t>
+  </si>
+  <si>
+    <t>Trevor Davis DaviTr03</t>
+  </si>
+  <si>
+    <t>Halapoulivaati Vaitai VaitHa00</t>
+  </si>
+  <si>
+    <t>Tyreek Hill HillTy00</t>
+  </si>
+  <si>
+    <t>D.J. Reader ReadD.00</t>
+  </si>
+  <si>
+    <t>Marqui Christian ChriMa00</t>
+  </si>
+  <si>
+    <t>Spencer Drango DranSp00</t>
+  </si>
+  <si>
+    <t>Antwione Williams WillAn01</t>
+  </si>
+  <si>
+    <t>Cole Toner ToneCo00</t>
+  </si>
+  <si>
+    <t>Alex Collins CollAl00</t>
+  </si>
+  <si>
+    <t>Rashard Higgins HiggRa00</t>
+  </si>
+  <si>
+    <t>Trey Caldwell CaldTr00</t>
+  </si>
+  <si>
+    <t>Fahn Cooper CoopFa00</t>
+  </si>
+  <si>
+    <t>Jatavis Brown BrowJa05</t>
+  </si>
+  <si>
+    <t>Andy Janovich JanoAn00</t>
+  </si>
+  <si>
+    <t>Temarrick Hemingway HemiTe00</t>
+  </si>
+  <si>
+    <t>D.J. White WhitD.00</t>
+  </si>
+  <si>
+    <t>Drew Kaser KaseDr00</t>
+  </si>
+  <si>
+    <t>Moritz Boehringer BoehMo00</t>
+  </si>
+  <si>
+    <t>Tyrone Holmes HolmTy01</t>
+  </si>
+  <si>
+    <t>Keenan Reynolds ReynKe00</t>
+  </si>
+  <si>
+    <t>Devante Bond BondDe00</t>
+  </si>
+  <si>
+    <t>Jerell Adams AdamJe01</t>
+  </si>
+  <si>
+    <t>DeAndre Houston-Carson HousDe00</t>
+  </si>
+  <si>
+    <t>Jakeem Grant GranJa00</t>
+  </si>
+  <si>
+    <t>Nate Sudfeld SudfNa00</t>
+  </si>
+  <si>
+    <t>David Morgan MorgDa01</t>
+  </si>
+  <si>
+    <t>Anthony Brown BrowAn02</t>
+  </si>
+  <si>
+    <t>Josh Forrest ForrJo00</t>
+  </si>
+  <si>
+    <t>Jake Rudock RudoJa00</t>
+  </si>
+  <si>
+    <t>Kolby Listenbee ListKo00</t>
+  </si>
+  <si>
+    <t>Sebastian Tretola TretSe00</t>
+  </si>
+  <si>
+    <t>Cory James JameCo00</t>
+  </si>
+  <si>
+    <t>Wes Schweitzer SchwWe00</t>
+  </si>
+  <si>
+    <t>Blake Countess CounBl00</t>
+  </si>
+  <si>
+    <t>Danny Vitale VitaDa00</t>
+  </si>
+  <si>
+    <t>Derek Watt WattDe00</t>
+  </si>
+  <si>
+    <t>Cody Core CoreCo00</t>
+  </si>
+  <si>
+    <t>Kyle Murphy MurpKy00</t>
+  </si>
+  <si>
+    <t>Brandon Allen AlleBr00</t>
+  </si>
+  <si>
+    <t>Anthony Zettel ZettAn00</t>
+  </si>
+  <si>
+    <t>Dadi Nicolas NicoDa00</t>
+  </si>
+  <si>
+    <t>Jordan Lucas LucaJo00</t>
+  </si>
+  <si>
+    <t>Harlan Miller MillHa00</t>
+  </si>
+  <si>
+    <t>Mike Thomas ThomMi04</t>
+  </si>
+  <si>
+    <t>Jeff Driskel DrisJe00</t>
+  </si>
+  <si>
+    <t>Kamu Grugier-Hill GrugKa00</t>
+  </si>
+  <si>
+    <t>Maurice Canady CanaMa00</t>
+  </si>
+  <si>
+    <t>Jimmy Landes LandJi00</t>
+  </si>
+  <si>
+    <t>Kelvin Taylor TaylKe01</t>
+  </si>
+  <si>
+    <t>Kavon Frazier FrazKa00</t>
+  </si>
+  <si>
+    <t>Aaron Burbridge BurbAa00</t>
+  </si>
+  <si>
+    <t>Elandon Roberts RobeEl00</t>
+  </si>
+  <si>
+    <t>Joey Hunt HuntJo00</t>
+  </si>
+  <si>
+    <t>Darius Jackson JackDa01</t>
+  </si>
+  <si>
+    <t>Rico Gathers GathRi00</t>
+  </si>
+  <si>
+    <t>Kevon Seymour SeymKe00</t>
+  </si>
+  <si>
+    <t>Will Parks ParkWi01</t>
+  </si>
+  <si>
+    <t>Travis Feeney FeenTr00</t>
+  </si>
+  <si>
+    <t>Ted Karras KarrTe00</t>
+  </si>
+  <si>
+    <t>Aaron Wallace WallAa00</t>
+  </si>
+  <si>
+    <t>Brandon Doughty DougBr00</t>
+  </si>
+  <si>
+    <t>Donavon Clark ClarDo00</t>
+  </si>
+  <si>
+    <t>Devin Lucien LuciDe00</t>
+  </si>
+  <si>
+    <t>Jonathan Woodard WoodJo00</t>
+  </si>
+  <si>
+    <t>Stephen Weatherly WeatSt00</t>
+  </si>
+  <si>
+    <t>Riley Dixon DixoRi00</t>
+  </si>
+  <si>
+    <t>Demarcus Ayers AyerDe00</t>
+  </si>
+  <si>
+    <t>Daniel Braverman BravDa00</t>
+  </si>
+  <si>
+    <t>Thomas Duarte DuarTh00</t>
+  </si>
+  <si>
+    <t>Steven Daniels DaniSt00</t>
+  </si>
+  <si>
+    <t>Jalen Mills MillJa02</t>
+  </si>
+  <si>
+    <t>Vadal Alexander AlexVa00</t>
+  </si>
+  <si>
+    <t>Lac Edwards EdwaLa01</t>
+  </si>
+  <si>
+    <t>Dwayne Washington WashDw00</t>
+  </si>
+  <si>
+    <t>Daniel Lasco LascDa00</t>
+  </si>
+  <si>
+    <t>Devin Fuller FullDe00</t>
+  </si>
+  <si>
+    <t>Trevor Bates BateTr00</t>
+  </si>
+  <si>
+    <t>Alex McCalister McCaAl00</t>
+  </si>
+  <si>
+    <t>Charone Peake PeakCh00</t>
+  </si>
+  <si>
+    <t>Keith Marshall MarsKe00</t>
+  </si>
+  <si>
+    <t>Kenny Lawler LawlKe00</t>
+  </si>
+  <si>
+    <t>Jayron Kearse KearJa00</t>
+  </si>
+  <si>
+    <t>Clayton Fejedelem FejeCl00</t>
+  </si>
+  <si>
+    <t>Tyler Matakevich MataTy00</t>
+  </si>
+  <si>
+    <t>Zac Brooks BrooZa00</t>
+  </si>
+  <si>
+    <t>Austin Blythe BlytAu00</t>
+  </si>
+  <si>
+    <t>Prince Charles Iworah IworPr00</t>
+  </si>
+  <si>
+    <t>Scooby Wright III WrigSc00</t>
+  </si>
+  <si>
+    <t>Joe Walker WalkJo01</t>
+  </si>
+  <si>
+    <t>Beau Sandland SandBe00</t>
+  </si>
+  <si>
+    <t>Kalan Reed ReedKa00</t>
+  </si>
+  <si>
+    <t>Jared Goff GoffJa00</t>
   </si>
 </sst>
 </file>
@@ -1554,11 +1554,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2720,10 +2720,10 @@
   <dimension ref="A1:AD257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:AD1"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2733,38 +2733,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2946,8 +2946,8 @@
       <c r="AC4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="14" t="s">
-        <v>38</v>
+      <c r="AD4" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2962,10 +2962,10 @@
         <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="12">
         <v>21</v>
@@ -3028,10 +3028,10 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3043,13 +3043,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="12">
         <v>23</v>
@@ -3112,10 +3112,10 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3127,13 +3127,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>21</v>
@@ -3200,10 +3200,10 @@
         <v>44</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3215,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="12">
         <v>21</v>
@@ -3284,10 +3284,10 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3299,13 +3299,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12">
         <v>21</v>
@@ -3372,10 +3372,10 @@
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3387,13 +3387,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" s="12">
         <v>22</v>
@@ -3456,10 +3456,10 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3471,13 +3471,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="12">
         <v>22</v>
@@ -3544,10 +3544,10 @@
         <v>30</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3559,13 +3559,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G12" s="12">
         <v>22</v>
@@ -3630,10 +3630,10 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3645,13 +3645,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G13" s="12">
         <v>23</v>
@@ -3720,10 +3720,10 @@
         <v>20.5</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3735,13 +3735,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="12">
         <v>21</v>
@@ -3808,10 +3808,10 @@
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3823,13 +3823,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="12">
         <v>21</v>
@@ -3896,10 +3896,10 @@
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,13 +3911,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G16" s="12">
         <v>22</v>
@@ -3986,10 +3986,10 @@
         <v>17</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4001,13 +4001,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G17" s="12">
         <v>22</v>
@@ -4070,10 +4070,10 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4085,13 +4085,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G18" s="12">
         <v>22</v>
@@ -4160,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4175,13 +4175,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G19" s="12">
         <v>22</v>
@@ -4244,10 +4244,10 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4259,13 +4259,13 @@
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G20" s="12">
         <v>23</v>
@@ -4328,10 +4328,10 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4343,13 +4343,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G21" s="12">
         <v>21</v>
@@ -4416,10 +4416,10 @@
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4431,13 +4431,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G22" s="12">
         <v>23</v>
@@ -4500,10 +4500,10 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4515,13 +4515,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" s="12">
         <v>22</v>
@@ -4588,10 +4588,10 @@
         <v>17.5</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4603,13 +4603,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G24" s="12">
         <v>21</v>
@@ -4678,10 +4678,10 @@
         <v>4</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,13 +4693,13 @@
         <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G25" s="12">
         <v>22</v>
@@ -4762,10 +4762,10 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4777,13 +4777,13 @@
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G26" s="12">
         <v>23</v>
@@ -4846,10 +4846,10 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4861,13 +4861,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G27" s="12">
         <v>21</v>
@@ -4932,10 +4932,10 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,13 +4947,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G28" s="12">
         <v>23</v>
@@ -5022,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5037,13 +5037,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G29" s="12">
         <v>21</v>
@@ -5110,10 +5110,10 @@
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="AD29" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5125,13 +5125,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="12">
         <v>22</v>
@@ -5194,10 +5194,10 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5209,13 +5209,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G31" s="12">
         <v>20</v>
@@ -5282,10 +5282,10 @@
         <v>16.5</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5297,10 +5297,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>18</v>
@@ -5366,10 +5366,10 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5381,13 +5381,13 @@
         <v>29</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G33" s="12">
         <v>21</v>
@@ -5454,10 +5454,10 @@
         <v>4.5</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5469,13 +5469,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G34" s="12">
         <v>22</v>
@@ -5542,10 +5542,10 @@
         <v>8</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5557,10 +5557,10 @@
         <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>18</v>
@@ -5626,10 +5626,10 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AD35" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5641,13 +5641,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G36" s="12">
         <v>22</v>
@@ -5714,10 +5714,10 @@
         <v>21</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5729,13 +5729,13 @@
         <v>33</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G37" s="12">
         <v>24</v>
@@ -5802,10 +5802,10 @@
         <v>1</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5817,13 +5817,13 @@
         <v>34</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G38" s="12">
         <v>21</v>
@@ -5892,10 +5892,10 @@
         <v>8</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD38" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5907,13 +5907,13 @@
         <v>35</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G39" s="12">
         <v>21</v>
@@ -5976,10 +5976,10 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AD39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5991,13 +5991,13 @@
         <v>36</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G40" s="12">
         <v>21</v>
@@ -6066,10 +6066,10 @@
         <v>6.5</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD40" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6081,13 +6081,13 @@
         <v>37</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G41" s="12">
         <v>22</v>
@@ -6156,10 +6156,10 @@
         <v>36.5</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6171,13 +6171,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G42" s="12">
         <v>23</v>
@@ -6246,10 +6246,10 @@
         <v>1</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6261,13 +6261,13 @@
         <v>39</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G43" s="12">
         <v>22</v>
@@ -6334,10 +6334,10 @@
         <v>7.5</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AD43" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6349,13 +6349,13 @@
         <v>40</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G44" s="12">
         <v>23</v>
@@ -6418,10 +6418,10 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="9" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6433,13 +6433,13 @@
         <v>41</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G45" s="12">
         <v>22</v>
@@ -6506,10 +6506,10 @@
         <v>3.5</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD45" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6521,13 +6521,13 @@
         <v>42</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G46" s="12">
         <v>22</v>
@@ -6594,10 +6594,10 @@
         <v>8.5</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AD46" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6609,13 +6609,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G47" s="12">
         <v>22</v>
@@ -6682,10 +6682,10 @@
         <v>3.5</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AD47" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6697,13 +6697,13 @@
         <v>44</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G48" s="12">
         <v>22</v>
@@ -6770,10 +6770,10 @@
         <v>5</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="AD48" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6785,13 +6785,13 @@
         <v>45</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G49" s="12">
         <v>22</v>
@@ -6854,10 +6854,10 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
       <c r="AC49" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD49" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -6869,13 +6869,13 @@
         <v>46</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G50" s="12">
         <v>21</v>
@@ -6944,10 +6944,10 @@
         <v>5</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD50" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,13 +6959,13 @@
         <v>47</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G51" s="12">
         <v>23</v>
@@ -7030,10 +7030,10 @@
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD51" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7045,13 +7045,13 @@
         <v>48</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G52" s="12">
         <v>22</v>
@@ -7114,10 +7114,10 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="9" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="AD52" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7129,13 +7129,13 @@
         <v>49</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G53" s="12">
         <v>23</v>
@@ -7202,10 +7202,10 @@
         <v>16.5</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD53" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7217,10 +7217,10 @@
         <v>50</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>18</v>
@@ -7286,10 +7286,10 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD54" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -7301,13 +7301,13 @@
         <v>51</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" s="12">
         <v>21</v>
@@ -7340,10 +7340,10 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AD55" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7355,13 +7355,13 @@
         <v>52</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G56" s="12">
         <v>21</v>
@@ -7430,10 +7430,10 @@
         <v>2.5</v>
       </c>
       <c r="AC56" s="9" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AD56" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7445,13 +7445,13 @@
         <v>53</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G57" s="12">
         <v>21</v>
@@ -7520,10 +7520,10 @@
         <v>1</v>
       </c>
       <c r="AC57" s="9" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="AD57" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -7535,13 +7535,13 @@
         <v>54</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G58" s="12">
         <v>22</v>
@@ -7610,10 +7610,10 @@
         <v>4.5</v>
       </c>
       <c r="AC58" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD58" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7625,13 +7625,13 @@
         <v>55</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G59" s="12">
         <v>21</v>
@@ -7694,10 +7694,10 @@
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="9" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="AD59" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7709,10 +7709,10 @@
         <v>56</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>18</v>
@@ -7778,10 +7778,10 @@
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="9" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="AD60" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7793,13 +7793,13 @@
         <v>57</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G61" s="12">
         <v>21</v>
@@ -7864,10 +7864,10 @@
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD61" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7879,13 +7879,13 @@
         <v>58</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G62" s="12">
         <v>22</v>
@@ -7954,10 +7954,10 @@
         <v>2.5</v>
       </c>
       <c r="AC62" s="9" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="AD62" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7969,13 +7969,13 @@
         <v>59</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="G63" s="12">
         <v>22</v>
@@ -8040,10 +8040,10 @@
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
       <c r="AC63" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD63" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8055,13 +8055,13 @@
         <v>60</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G64" s="12">
         <v>22</v>
@@ -8126,10 +8126,10 @@
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
       <c r="AC64" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD64" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8141,13 +8141,13 @@
         <v>61</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G65" s="12">
         <v>21</v>
@@ -8216,10 +8216,10 @@
         <v>8</v>
       </c>
       <c r="AC65" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD65" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8231,13 +8231,13 @@
         <v>62</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G66" s="12">
         <v>23</v>
@@ -8306,10 +8306,10 @@
         <v>3</v>
       </c>
       <c r="AC66" s="9" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="AD66" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8321,13 +8321,13 @@
         <v>63</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G67" s="12">
         <v>23</v>
@@ -8394,10 +8394,10 @@
         <v>5</v>
       </c>
       <c r="AC67" s="9" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="AD67" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8409,13 +8409,13 @@
         <v>64</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G68" s="12">
         <v>23</v>
@@ -8484,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="AC68" s="9" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="AD68" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8499,13 +8499,13 @@
         <v>65</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G69" s="12">
         <v>23</v>
@@ -8572,10 +8572,10 @@
         <v>18.5</v>
       </c>
       <c r="AC69" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AD69" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8587,13 +8587,13 @@
         <v>66</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G70" s="12">
         <v>22</v>
@@ -8654,10 +8654,10 @@
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="9" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="AD70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8669,13 +8669,13 @@
         <v>67</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G71" s="12">
         <v>21</v>
@@ -8742,10 +8742,10 @@
         <v>14.5</v>
       </c>
       <c r="AC71" s="9" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="AD71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8757,13 +8757,13 @@
         <v>68</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G72" s="12">
         <v>22</v>
@@ -8826,10 +8826,10 @@
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="9" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="AD72" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8841,13 +8841,13 @@
         <v>69</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G73" s="12">
         <v>21</v>
@@ -8916,10 +8916,10 @@
         <v>42.5</v>
       </c>
       <c r="AC73" s="9" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="AD73" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8931,13 +8931,13 @@
         <v>70</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G74" s="12">
         <v>25</v>
@@ -9004,10 +9004,10 @@
         <v>0.5</v>
       </c>
       <c r="AC74" s="9" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="AD74" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9019,13 +9019,13 @@
         <v>71</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="G75" s="12">
         <v>22</v>
@@ -9094,10 +9094,10 @@
         <v>1.5</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9109,13 +9109,13 @@
         <v>72</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G76" s="12">
         <v>22</v>
@@ -9182,10 +9182,10 @@
         <v>3.5</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD76" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9197,13 +9197,13 @@
         <v>73</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G77" s="12">
         <v>22</v>
@@ -9268,10 +9268,10 @@
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
       <c r="AC77" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD77" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9283,13 +9283,13 @@
         <v>74</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G78" s="12">
         <v>22</v>
@@ -9354,10 +9354,10 @@
       </c>
       <c r="AB78" s="10"/>
       <c r="AC78" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD78" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9369,13 +9369,13 @@
         <v>75</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G79" s="12">
         <v>24</v>
@@ -9442,10 +9442,10 @@
         <v>2</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AD79" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9457,13 +9457,13 @@
         <v>76</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G80" s="12">
         <v>24</v>
@@ -9526,10 +9526,10 @@
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="9" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="AD80" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9541,13 +9541,13 @@
         <v>77</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G81" s="12">
         <v>21</v>
@@ -9616,10 +9616,10 @@
         <v>2</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD81" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9631,10 +9631,10 @@
         <v>78</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>18</v>
@@ -9700,10 +9700,10 @@
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="9" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="AD82" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9715,10 +9715,10 @@
         <v>79</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>18</v>
@@ -9784,10 +9784,10 @@
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="9" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="AD83" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9799,13 +9799,13 @@
         <v>80</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G84" s="12">
         <v>21</v>
@@ -9872,10 +9872,10 @@
         <v>4.5</v>
       </c>
       <c r="AC84" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD84" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9887,13 +9887,13 @@
         <v>81</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G85" s="12">
         <v>21</v>
@@ -9956,10 +9956,10 @@
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AD85" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9971,13 +9971,13 @@
         <v>82</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G86" s="12">
         <v>23</v>
@@ -10040,10 +10040,10 @@
       <c r="AA86" s="10"/>
       <c r="AB86" s="10"/>
       <c r="AC86" s="9" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="AD86" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10055,13 +10055,13 @@
         <v>83</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G87" s="12">
         <v>22</v>
@@ -10128,10 +10128,10 @@
         <v>21.5</v>
       </c>
       <c r="AC87" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AD87" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10143,13 +10143,13 @@
         <v>84</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G88" s="12">
         <v>21</v>
@@ -10218,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="AC88" s="9" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AD88" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10233,13 +10233,13 @@
         <v>85</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G89" s="12">
         <v>23</v>
@@ -10302,10 +10302,10 @@
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD89" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10317,13 +10317,13 @@
         <v>86</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G90" s="12">
         <v>22</v>
@@ -10388,10 +10388,10 @@
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="9" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="AD90" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -10403,13 +10403,13 @@
         <v>87</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G91" s="12">
         <v>23</v>
@@ -10478,10 +10478,10 @@
         <v>2</v>
       </c>
       <c r="AC91" s="9" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AD91" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10493,13 +10493,13 @@
         <v>88</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G92" s="12">
         <v>24</v>
@@ -10568,10 +10568,10 @@
         <v>18.5</v>
       </c>
       <c r="AC92" s="9" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AD92" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10583,13 +10583,13 @@
         <v>89</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G93" s="12">
         <v>23</v>
@@ -10656,7 +10656,7 @@
         <v>15.5</v>
       </c>
       <c r="AC93" s="9" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AD93" s="10"/>
     </row>
@@ -10669,13 +10669,13 @@
         <v>90</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G94" s="12">
         <v>22</v>
@@ -10738,10 +10738,10 @@
       <c r="AA94" s="10"/>
       <c r="AB94" s="10"/>
       <c r="AC94" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD94" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10753,13 +10753,13 @@
         <v>91</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" s="12">
         <v>23</v>
@@ -10822,10 +10822,10 @@
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
       <c r="AC95" s="9" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="AD95" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10837,13 +10837,13 @@
         <v>92</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G96" s="12">
         <v>23</v>
@@ -10908,10 +10908,10 @@
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AD96" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10923,13 +10923,13 @@
         <v>93</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" s="12">
         <v>23</v>
@@ -10992,10 +10992,10 @@
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="9" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="AD97" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11007,13 +11007,13 @@
         <v>94</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G98" s="12">
         <v>23</v>
@@ -11078,10 +11078,10 @@
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
       <c r="AC98" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD98" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11093,13 +11093,13 @@
         <v>95</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G99" s="12">
         <v>24</v>
@@ -11162,10 +11162,10 @@
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="9" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AD99" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11177,13 +11177,13 @@
         <v>96</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G100" s="12">
         <v>22</v>
@@ -11250,10 +11250,10 @@
         <v>1</v>
       </c>
       <c r="AC100" s="9" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="AD100" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11265,10 +11265,10 @@
         <v>97</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>18</v>
@@ -11334,10 +11334,10 @@
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
       <c r="AC101" s="9" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AD101" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11349,13 +11349,13 @@
         <v>98</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G102" s="12">
         <v>22</v>
@@ -11424,10 +11424,10 @@
         <v>2</v>
       </c>
       <c r="AC102" s="9" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="AD102" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11439,13 +11439,13 @@
         <v>99</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G103" s="12">
         <v>22</v>
@@ -11514,10 +11514,10 @@
         <v>8.5</v>
       </c>
       <c r="AC103" s="9" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="AD103" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11529,13 +11529,13 @@
         <v>100</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" s="12">
         <v>23</v>
@@ -11598,10 +11598,10 @@
       <c r="AA104" s="10"/>
       <c r="AB104" s="10"/>
       <c r="AC104" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AD104" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11613,13 +11613,13 @@
         <v>101</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G105" s="12">
         <v>23</v>
@@ -11686,10 +11686,10 @@
         <v>1</v>
       </c>
       <c r="AC105" s="9" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AD105" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11701,13 +11701,13 @@
         <v>102</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G106" s="12">
         <v>22</v>
@@ -11772,10 +11772,10 @@
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD106" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11787,13 +11787,13 @@
         <v>103</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G107" s="12">
         <v>22</v>
@@ -11860,10 +11860,10 @@
         <v>6</v>
       </c>
       <c r="AC107" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AD107" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11875,13 +11875,13 @@
         <v>104</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G108" s="12">
         <v>22</v>
@@ -11950,10 +11950,10 @@
         <v>2</v>
       </c>
       <c r="AC108" s="9" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="AD108" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -11965,10 +11965,10 @@
         <v>105</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>18</v>
@@ -12034,10 +12034,10 @@
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="9" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="AD109" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12049,13 +12049,13 @@
         <v>106</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G110" s="12">
         <v>22</v>
@@ -12124,10 +12124,10 @@
         <v>2</v>
       </c>
       <c r="AC110" s="9" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="AD110" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12139,13 +12139,13 @@
         <v>107</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G111" s="12">
         <v>23</v>
@@ -12210,10 +12210,10 @@
       <c r="AA111" s="10"/>
       <c r="AB111" s="10"/>
       <c r="AC111" s="9" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="AD111" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12225,13 +12225,13 @@
         <v>108</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G112" s="12">
         <v>23</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="AB112" s="10"/>
       <c r="AC112" s="9" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="AD112" s="10"/>
     </row>
@@ -12311,13 +12311,13 @@
         <v>109</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G113" s="12">
         <v>23</v>
@@ -12386,10 +12386,10 @@
         <v>0.5</v>
       </c>
       <c r="AC113" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12404,10 +12404,10 @@
         <v>34</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G114" s="12">
         <v>23</v>
@@ -12472,10 +12472,10 @@
       <c r="AA114" s="10"/>
       <c r="AB114" s="10"/>
       <c r="AC114" s="9" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="AD114" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12487,13 +12487,13 @@
         <v>111</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G115" s="12">
         <v>23</v>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="AB115" s="10"/>
       <c r="AC115" s="9" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="AD115" s="10"/>
     </row>
@@ -12573,13 +12573,13 @@
         <v>112</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G116" s="12">
         <v>24</v>
@@ -12642,10 +12642,10 @@
       <c r="AA116" s="10"/>
       <c r="AB116" s="10"/>
       <c r="AC116" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AD116" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -12657,13 +12657,13 @@
         <v>113</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G117" s="12">
         <v>23</v>
@@ -12732,10 +12732,10 @@
         <v>6</v>
       </c>
       <c r="AC117" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD117" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -12747,13 +12747,13 @@
         <v>114</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G118" s="12">
         <v>22</v>
@@ -12818,10 +12818,10 @@
       <c r="AA118" s="10"/>
       <c r="AB118" s="10"/>
       <c r="AC118" s="9" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="AD118" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -12833,13 +12833,13 @@
         <v>115</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G119" s="12">
         <v>23</v>
@@ -12908,10 +12908,10 @@
         <v>5.5</v>
       </c>
       <c r="AC119" s="9" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="AD119" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -12923,13 +12923,13 @@
         <v>116</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G120" s="12">
         <v>21</v>
@@ -12996,10 +12996,10 @@
         <v>7.5</v>
       </c>
       <c r="AC120" s="9" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="AD120" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13014,10 +13014,10 @@
         <v>34</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G121" s="12">
         <v>21</v>
@@ -13082,10 +13082,10 @@
       <c r="AA121" s="10"/>
       <c r="AB121" s="10"/>
       <c r="AC121" s="9" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="AD121" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13097,13 +13097,13 @@
         <v>118</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G122" s="12">
         <v>23</v>
@@ -13172,10 +13172,10 @@
         <v>1</v>
       </c>
       <c r="AC122" s="9" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="AD122" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -13187,13 +13187,13 @@
         <v>119</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G123" s="12">
         <v>22</v>
@@ -13258,10 +13258,10 @@
       <c r="AA123" s="10"/>
       <c r="AB123" s="10"/>
       <c r="AC123" s="9" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="AD123" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -13273,13 +13273,13 @@
         <v>120</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G124" s="12">
         <v>23</v>
@@ -13346,7 +13346,7 @@
         <v>11.5</v>
       </c>
       <c r="AC124" s="9" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="AD124" s="10"/>
     </row>
@@ -13359,13 +13359,13 @@
         <v>121</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G125" s="12">
         <v>22</v>
@@ -13428,10 +13428,10 @@
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="9" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="AD125" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13443,13 +13443,13 @@
         <v>122</v>
       </c>
       <c r="D126" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G126" s="12">
         <v>21</v>
@@ -13516,10 +13516,10 @@
         <v>3.5</v>
       </c>
       <c r="AC126" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD126" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13531,13 +13531,13 @@
         <v>123</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G127" s="12">
         <v>22</v>
@@ -13600,10 +13600,10 @@
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="9" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AD127" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13615,13 +13615,13 @@
         <v>124</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G128" s="12">
         <v>23</v>
@@ -13690,10 +13690,10 @@
         <v>1</v>
       </c>
       <c r="AC128" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="AD128" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13705,13 +13705,13 @@
         <v>125</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G129" s="12">
         <v>21</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AC129" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD129" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -13793,13 +13793,13 @@
         <v>126</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G130" s="12">
         <v>21</v>
@@ -13864,10 +13864,10 @@
       <c r="AA130" s="10"/>
       <c r="AB130" s="10"/>
       <c r="AC130" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD130" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -13879,13 +13879,13 @@
         <v>127</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G131" s="12">
         <v>22</v>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="AB131" s="10"/>
       <c r="AC131" s="9" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="AD131" s="10"/>
     </row>
@@ -13965,13 +13965,13 @@
         <v>128</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G132" s="12">
         <v>23</v>
@@ -14034,10 +14034,10 @@
       <c r="AA132" s="10"/>
       <c r="AB132" s="10"/>
       <c r="AC132" s="9" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="AD132" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14049,13 +14049,13 @@
         <v>129</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G133" s="12">
         <v>22</v>
@@ -14122,10 +14122,10 @@
       </c>
       <c r="AB133" s="10"/>
       <c r="AC133" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AD133" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14137,13 +14137,13 @@
         <v>130</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G134" s="12">
         <v>24</v>
@@ -14206,10 +14206,10 @@
       <c r="AA134" s="10"/>
       <c r="AB134" s="10"/>
       <c r="AC134" s="9" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="AD134" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14221,13 +14221,13 @@
         <v>131</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="G135" s="12">
         <v>22</v>
@@ -14296,10 +14296,10 @@
         <v>12</v>
       </c>
       <c r="AC135" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AD135" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14311,13 +14311,13 @@
         <v>132</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G136" s="12">
         <v>22</v>
@@ -14384,10 +14384,10 @@
         <v>4.5</v>
       </c>
       <c r="AC136" s="9" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AD136" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -14399,13 +14399,13 @@
         <v>133</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G137" s="12">
         <v>21</v>
@@ -14472,10 +14472,10 @@
       </c>
       <c r="AB137" s="10"/>
       <c r="AC137" s="9" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AD137" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14487,13 +14487,13 @@
         <v>134</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G138" s="12">
         <v>22</v>
@@ -14556,10 +14556,10 @@
       <c r="AA138" s="10"/>
       <c r="AB138" s="10"/>
       <c r="AC138" s="9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AD138" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14571,13 +14571,13 @@
         <v>135</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" s="12">
         <v>23</v>
@@ -14640,10 +14640,10 @@
       <c r="AA139" s="10"/>
       <c r="AB139" s="10"/>
       <c r="AC139" s="9" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="AD139" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14655,13 +14655,13 @@
         <v>136</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G140" s="12">
         <v>24</v>
@@ -14726,10 +14726,10 @@
       <c r="AA140" s="10"/>
       <c r="AB140" s="10"/>
       <c r="AC140" s="9" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="AD140" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14741,13 +14741,13 @@
         <v>137</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G141" s="12">
         <v>22</v>
@@ -14816,10 +14816,10 @@
         <v>7</v>
       </c>
       <c r="AC141" s="9" t="s">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c r="AD141" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14831,13 +14831,13 @@
         <v>138</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G142" s="12">
         <v>23</v>
@@ -14902,7 +14902,7 @@
       <c r="AA142" s="10"/>
       <c r="AB142" s="10"/>
       <c r="AC142" s="9" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="AD142" s="10"/>
     </row>
@@ -14915,13 +14915,13 @@
         <v>139</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143" s="12">
         <v>23</v>
@@ -14984,10 +14984,10 @@
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
       <c r="AC143" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD143" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -14999,13 +14999,13 @@
         <v>140</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G144" s="12">
         <v>21</v>
@@ -15068,10 +15068,10 @@
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="9" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="AD144" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15083,13 +15083,13 @@
         <v>141</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G145" s="12">
         <v>22</v>
@@ -15154,10 +15154,10 @@
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
       <c r="AC145" s="9" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AD145" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15169,13 +15169,13 @@
         <v>142</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G146" s="12">
         <v>23</v>
@@ -15242,10 +15242,10 @@
         <v>13.5</v>
       </c>
       <c r="AC146" s="9" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="AD146" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -15257,13 +15257,13 @@
         <v>143</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G147" s="12">
         <v>23</v>
@@ -15328,10 +15328,10 @@
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>
       <c r="AC147" s="9" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="AD147" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -15343,10 +15343,10 @@
         <v>144</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>18</v>
@@ -15412,10 +15412,10 @@
       <c r="AA148" s="10"/>
       <c r="AB148" s="10"/>
       <c r="AC148" s="9" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="AD148" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15427,13 +15427,13 @@
         <v>145</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G149" s="12">
         <v>22</v>
@@ -15496,10 +15496,10 @@
       <c r="AA149" s="10"/>
       <c r="AB149" s="10"/>
       <c r="AC149" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AD149" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15511,13 +15511,13 @@
         <v>146</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G150" s="12">
         <v>24</v>
@@ -15584,7 +15584,7 @@
         <v>30.5</v>
       </c>
       <c r="AC150" s="9" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="AD150" s="10"/>
     </row>
@@ -15597,13 +15597,13 @@
         <v>147</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G151" s="12">
         <v>23</v>
@@ -15670,10 +15670,10 @@
         <v>8.5</v>
       </c>
       <c r="AC151" s="9" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="AD151" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -15685,13 +15685,13 @@
         <v>148</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G152" s="12">
         <v>22</v>
@@ -15754,10 +15754,10 @@
       <c r="AA152" s="10"/>
       <c r="AB152" s="10"/>
       <c r="AC152" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD152" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15769,13 +15769,13 @@
         <v>149</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G153" s="12">
         <v>21</v>
@@ -15840,10 +15840,10 @@
       <c r="AA153" s="10"/>
       <c r="AB153" s="10"/>
       <c r="AC153" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD153" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -15855,13 +15855,13 @@
         <v>150</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G154" s="12">
         <v>21</v>
@@ -15924,10 +15924,10 @@
       <c r="AA154" s="10"/>
       <c r="AB154" s="10"/>
       <c r="AC154" s="9" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="AD154" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -15939,10 +15939,10 @@
         <v>151</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>18</v>
@@ -16008,10 +16008,10 @@
       <c r="AA155" s="10"/>
       <c r="AB155" s="10"/>
       <c r="AC155" s="9" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="AD155" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16023,13 +16023,13 @@
         <v>152</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G156" s="12">
         <v>22</v>
@@ -16096,10 +16096,10 @@
         <v>22</v>
       </c>
       <c r="AC156" s="9" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="AD156" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -16111,13 +16111,13 @@
         <v>153</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G157" s="12">
         <v>22</v>
@@ -16182,10 +16182,10 @@
       <c r="AA157" s="10"/>
       <c r="AB157" s="10"/>
       <c r="AC157" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD157" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16197,13 +16197,13 @@
         <v>154</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G158" s="12">
         <v>23</v>
@@ -16266,10 +16266,10 @@
       <c r="AA158" s="10"/>
       <c r="AB158" s="10"/>
       <c r="AC158" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD158" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16281,13 +16281,13 @@
         <v>155</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G159" s="12">
         <v>23</v>
@@ -16350,7 +16350,7 @@
       <c r="AA159" s="10"/>
       <c r="AB159" s="10"/>
       <c r="AC159" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD159" s="10"/>
     </row>
@@ -16363,13 +16363,13 @@
         <v>156</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G160" s="12">
         <v>22</v>
@@ -16432,10 +16432,10 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AD160" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16447,13 +16447,13 @@
         <v>157</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G161" s="12">
         <v>22</v>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="AB161" s="10"/>
       <c r="AC161" s="9" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="AD161" s="10"/>
     </row>
@@ -16533,13 +16533,13 @@
         <v>158</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G162" s="12">
         <v>24</v>
@@ -16602,10 +16602,10 @@
       <c r="AA162" s="10"/>
       <c r="AB162" s="10"/>
       <c r="AC162" s="9" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="AD162" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -16617,13 +16617,13 @@
         <v>159</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G163" s="12">
         <v>22</v>
@@ -16688,10 +16688,10 @@
       <c r="AA163" s="10"/>
       <c r="AB163" s="10"/>
       <c r="AC163" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD163" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16703,13 +16703,13 @@
         <v>160</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G164" s="12">
         <v>23</v>
@@ -16776,10 +16776,10 @@
         <v>1</v>
       </c>
       <c r="AC164" s="9" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="AD164" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -16791,10 +16791,10 @@
         <v>161</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>18</v>
@@ -16860,10 +16860,10 @@
       <c r="AA165" s="10"/>
       <c r="AB165" s="10"/>
       <c r="AC165" s="9" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="AD165" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16875,13 +16875,13 @@
         <v>162</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" s="12">
         <v>23</v>
@@ -16942,10 +16942,10 @@
       <c r="AA166" s="10"/>
       <c r="AB166" s="10"/>
       <c r="AC166" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AD166" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -16957,13 +16957,13 @@
         <v>163</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G167" s="12">
         <v>23</v>
@@ -17028,10 +17028,10 @@
       <c r="AA167" s="10"/>
       <c r="AB167" s="10"/>
       <c r="AC167" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD167" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AD167" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17043,13 +17043,13 @@
         <v>164</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G168" s="12">
         <v>23</v>
@@ -17112,10 +17112,10 @@
       <c r="AA168" s="10"/>
       <c r="AB168" s="10"/>
       <c r="AC168" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AD168" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -17127,13 +17127,13 @@
         <v>165</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G169" s="12">
         <v>22</v>
@@ -17198,7 +17198,7 @@
       <c r="AA169" s="10"/>
       <c r="AB169" s="10"/>
       <c r="AC169" s="9" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="AD169" s="10"/>
     </row>
@@ -17211,13 +17211,13 @@
         <v>166</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G170" s="12">
         <v>22</v>
@@ -17284,10 +17284,10 @@
         <v>6.5</v>
       </c>
       <c r="AC170" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD170" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17299,13 +17299,13 @@
         <v>167</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G171" s="12">
         <v>21</v>
@@ -17368,7 +17368,7 @@
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
       <c r="AC171" s="9" t="s">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="AD171" s="10"/>
     </row>
@@ -17381,10 +17381,10 @@
         <v>168</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>18</v>
@@ -17450,10 +17450,10 @@
       <c r="AA172" s="10"/>
       <c r="AB172" s="10"/>
       <c r="AC172" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD172" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17465,13 +17465,13 @@
         <v>169</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="G173" s="12">
         <v>23</v>
@@ -17536,10 +17536,10 @@
       <c r="AA173" s="10"/>
       <c r="AB173" s="10"/>
       <c r="AC173" s="9" t="s">
-        <v>327</v>
+        <v>158</v>
       </c>
       <c r="AD173" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17551,13 +17551,13 @@
         <v>170</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G174" s="12">
         <v>22</v>
@@ -17620,7 +17620,7 @@
       <c r="AA174" s="10"/>
       <c r="AB174" s="10"/>
       <c r="AC174" s="9" t="s">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="AD174" s="10"/>
     </row>
@@ -17633,13 +17633,13 @@
         <v>171</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G175" s="12">
         <v>22</v>
@@ -17702,10 +17702,10 @@
       <c r="AA175" s="10"/>
       <c r="AB175" s="10"/>
       <c r="AC175" s="9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AD175" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17717,13 +17717,13 @@
         <v>172</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G176" s="12">
         <v>21</v>
@@ -17786,10 +17786,10 @@
       <c r="AA176" s="10"/>
       <c r="AB176" s="10"/>
       <c r="AC176" s="9" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="AD176" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17801,13 +17801,13 @@
         <v>173</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="G177" s="12">
         <v>22</v>
@@ -17870,10 +17870,10 @@
       <c r="AA177" s="10"/>
       <c r="AB177" s="10"/>
       <c r="AC177" s="9" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="AD177" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17885,13 +17885,13 @@
         <v>174</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G178" s="12">
         <v>23</v>
@@ -17924,10 +17924,10 @@
       <c r="AA178" s="10"/>
       <c r="AB178" s="10"/>
       <c r="AC178" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD178" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -17939,13 +17939,13 @@
         <v>175</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G179" s="12">
         <v>22</v>
@@ -18012,10 +18012,10 @@
         <v>4.5</v>
       </c>
       <c r="AC179" s="9" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="AD179" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18027,13 +18027,13 @@
         <v>176</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="G180" s="12">
         <v>23</v>
@@ -18098,10 +18098,10 @@
       <c r="AA180" s="10"/>
       <c r="AB180" s="10"/>
       <c r="AC180" s="9" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="AD180" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -18116,10 +18116,10 @@
         <v>34</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G181" s="12">
         <v>23</v>
@@ -18184,7 +18184,7 @@
       <c r="AA181" s="10"/>
       <c r="AB181" s="10"/>
       <c r="AC181" s="9" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AD181" s="10"/>
     </row>
@@ -18197,13 +18197,13 @@
         <v>178</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G182" s="12">
         <v>22</v>
@@ -18270,10 +18270,10 @@
       </c>
       <c r="AB182" s="10"/>
       <c r="AC182" s="9" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="AD182" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18285,13 +18285,13 @@
         <v>179</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="G183" s="12">
         <v>23</v>
@@ -18356,10 +18356,10 @@
       <c r="AA183" s="10"/>
       <c r="AB183" s="10"/>
       <c r="AC183" s="9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AD183" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -18371,13 +18371,13 @@
         <v>180</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G184" s="12">
         <v>22</v>
@@ -18421,13 +18421,13 @@
         <v>181</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G185" s="12">
         <v>22</v>
@@ -18492,7 +18492,7 @@
         <v>1</v>
       </c>
       <c r="AC185" s="9" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="AD185" s="10"/>
     </row>
@@ -18505,13 +18505,13 @@
         <v>182</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G186" s="12">
         <v>22</v>
@@ -18572,10 +18572,10 @@
       <c r="AA186" s="10"/>
       <c r="AB186" s="10"/>
       <c r="AC186" s="9" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="AD186" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18587,13 +18587,13 @@
         <v>183</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G187" s="12">
         <v>23</v>
@@ -18658,10 +18658,10 @@
       <c r="AA187" s="10"/>
       <c r="AB187" s="10"/>
       <c r="AC187" s="9" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AD187" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18673,13 +18673,13 @@
         <v>184</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G188" s="12">
         <v>23</v>
@@ -18744,10 +18744,10 @@
       <c r="AA188" s="10"/>
       <c r="AB188" s="10"/>
       <c r="AC188" s="9" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="AD188" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18759,13 +18759,13 @@
         <v>185</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G189" s="12">
         <v>23</v>
@@ -18830,7 +18830,7 @@
       <c r="AA189" s="10"/>
       <c r="AB189" s="10"/>
       <c r="AC189" s="9" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="AD189" s="10"/>
     </row>
@@ -18843,13 +18843,13 @@
         <v>186</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G190" s="12">
         <v>23</v>
@@ -18914,10 +18914,10 @@
       <c r="AA190" s="10"/>
       <c r="AB190" s="10"/>
       <c r="AC190" s="9" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="AD190" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -18929,13 +18929,13 @@
         <v>187</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" s="12">
         <v>22</v>
@@ -18996,10 +18996,10 @@
       <c r="AA191" s="10"/>
       <c r="AB191" s="10"/>
       <c r="AC191" s="9" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="AD191" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19011,13 +19011,13 @@
         <v>188</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G192" s="12">
         <v>23</v>
@@ -19080,10 +19080,10 @@
       <c r="AA192" s="10"/>
       <c r="AB192" s="10"/>
       <c r="AC192" s="9" t="s">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="AD192" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19095,13 +19095,13 @@
         <v>189</v>
       </c>
       <c r="D193" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="G193" s="12">
         <v>22</v>
@@ -19170,10 +19170,10 @@
         <v>3</v>
       </c>
       <c r="AC193" s="9" t="s">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="AD193" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19188,10 +19188,10 @@
         <v>34</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G194" s="12">
         <v>24</v>
@@ -19256,10 +19256,10 @@
       <c r="AA194" s="10"/>
       <c r="AB194" s="10"/>
       <c r="AC194" s="9" t="s">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="AD194" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19271,13 +19271,13 @@
         <v>191</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G195" s="12">
         <v>23</v>
@@ -19340,10 +19340,10 @@
       <c r="AA195" s="10"/>
       <c r="AB195" s="10"/>
       <c r="AC195" s="9" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AD195" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19355,13 +19355,13 @@
         <v>192</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G196" s="12">
         <v>22</v>
@@ -19394,10 +19394,10 @@
       <c r="AA196" s="10"/>
       <c r="AB196" s="10"/>
       <c r="AC196" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AD196" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19409,10 +19409,10 @@
         <v>193</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>18</v>
@@ -19478,10 +19478,10 @@
       <c r="AA197" s="10"/>
       <c r="AB197" s="10"/>
       <c r="AC197" s="9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AD197" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19493,13 +19493,13 @@
         <v>194</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G198" s="12">
         <v>23</v>
@@ -19564,10 +19564,10 @@
       <c r="AA198" s="10"/>
       <c r="AB198" s="10"/>
       <c r="AC198" s="9" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="AD198" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -19579,10 +19579,10 @@
         <v>195</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>18</v>
@@ -19648,10 +19648,10 @@
       <c r="AA199" s="10"/>
       <c r="AB199" s="10"/>
       <c r="AC199" s="9" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="AD199" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -19663,13 +19663,13 @@
         <v>196</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G200" s="12">
         <v>23</v>
@@ -19736,10 +19736,10 @@
         <v>1</v>
       </c>
       <c r="AC200" s="9" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="AD200" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19751,13 +19751,13 @@
         <v>197</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="G201" s="12">
         <v>22</v>
@@ -19820,10 +19820,10 @@
       <c r="AA201" s="10"/>
       <c r="AB201" s="10"/>
       <c r="AC201" s="9" t="s">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c r="AD201" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19835,13 +19835,13 @@
         <v>198</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="G202" s="12">
         <v>23</v>
@@ -19906,10 +19906,10 @@
       <c r="AA202" s="10"/>
       <c r="AB202" s="10"/>
       <c r="AC202" s="9" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="AD202" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -19921,13 +19921,13 @@
         <v>199</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G203" s="12">
         <v>22</v>
@@ -19992,10 +19992,10 @@
       <c r="AA203" s="10"/>
       <c r="AB203" s="10"/>
       <c r="AC203" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD203" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20007,13 +20007,13 @@
         <v>200</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G204" s="12">
         <v>22</v>
@@ -20076,10 +20076,10 @@
       <c r="AA204" s="10"/>
       <c r="AB204" s="10"/>
       <c r="AC204" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AD204" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20091,13 +20091,13 @@
         <v>201</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G205" s="12">
         <v>24</v>
@@ -20158,10 +20158,10 @@
       <c r="AA205" s="10"/>
       <c r="AB205" s="10"/>
       <c r="AC205" s="9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AD205" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20173,13 +20173,13 @@
         <v>202</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G206" s="12">
         <v>24</v>
@@ -20246,10 +20246,10 @@
         <v>7.5</v>
       </c>
       <c r="AC206" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AD206" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20261,13 +20261,13 @@
         <v>203</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G207" s="12">
         <v>23</v>
@@ -20330,10 +20330,10 @@
       <c r="AA207" s="10"/>
       <c r="AB207" s="10"/>
       <c r="AC207" s="9" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AD207" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20345,13 +20345,13 @@
         <v>204</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G208" s="12">
         <v>23</v>
@@ -20420,10 +20420,10 @@
         <v>1</v>
       </c>
       <c r="AC208" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AD208" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20435,13 +20435,13 @@
         <v>205</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G209" s="12">
         <v>22</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="AB209" s="10"/>
       <c r="AC209" s="9" t="s">
-        <v>377</v>
+        <v>172</v>
       </c>
       <c r="AD209" s="10"/>
     </row>
@@ -20524,10 +20524,10 @@
         <v>34</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G210" s="12">
         <v>22</v>
@@ -20592,10 +20592,10 @@
       <c r="AA210" s="10"/>
       <c r="AB210" s="10"/>
       <c r="AC210" s="9" t="s">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="AD210" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20607,13 +20607,13 @@
         <v>207</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" s="12">
         <v>23</v>
@@ -20674,10 +20674,10 @@
       <c r="AA211" s="10"/>
       <c r="AB211" s="10"/>
       <c r="AC211" s="9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AD211" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20689,13 +20689,13 @@
         <v>208</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G212" s="12">
         <v>22</v>
@@ -20762,7 +20762,7 @@
         <v>2</v>
       </c>
       <c r="AC212" s="9" t="s">
-        <v>382</v>
+        <v>174</v>
       </c>
       <c r="AD212" s="10"/>
     </row>
@@ -20775,13 +20775,13 @@
         <v>209</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G213" s="12">
         <v>22</v>
@@ -20848,10 +20848,10 @@
       </c>
       <c r="AB213" s="10"/>
       <c r="AC213" s="9" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="AD213" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20863,13 +20863,13 @@
         <v>210</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="G214" s="12">
         <v>24</v>
@@ -20902,10 +20902,10 @@
       <c r="AA214" s="10"/>
       <c r="AB214" s="10"/>
       <c r="AC214" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD214" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20917,13 +20917,13 @@
         <v>211</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G215" s="12">
         <v>22</v>
@@ -20956,10 +20956,10 @@
       <c r="AA215" s="10"/>
       <c r="AB215" s="10"/>
       <c r="AC215" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD215" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -20971,13 +20971,13 @@
         <v>212</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G216" s="12">
         <v>22</v>
@@ -21044,10 +21044,10 @@
         <v>1</v>
       </c>
       <c r="AC216" s="9" t="s">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="AD216" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -21059,13 +21059,13 @@
         <v>213</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G217" s="12">
         <v>22</v>
@@ -21130,10 +21130,10 @@
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
       <c r="AC217" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AD217" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21145,13 +21145,13 @@
         <v>214</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G218" s="12">
         <v>22</v>
@@ -21218,10 +21218,10 @@
         <v>5</v>
       </c>
       <c r="AC218" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AD218" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21233,13 +21233,13 @@
         <v>215</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G219" s="12">
         <v>22</v>
@@ -21302,10 +21302,10 @@
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AD219" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21317,13 +21317,13 @@
         <v>216</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G220" s="12">
         <v>22</v>
@@ -21386,7 +21386,7 @@
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="9" t="s">
-        <v>394</v>
+        <v>178</v>
       </c>
       <c r="AD220" s="10"/>
     </row>
@@ -21399,13 +21399,13 @@
         <v>217</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G221" s="12">
         <v>22</v>
@@ -21468,7 +21468,7 @@
       <c r="AA221" s="10"/>
       <c r="AB221" s="10"/>
       <c r="AC221" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD221" s="10"/>
     </row>
@@ -21481,13 +21481,13 @@
         <v>218</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G222" s="12">
         <v>22</v>
@@ -21552,10 +21552,10 @@
       <c r="AA222" s="10"/>
       <c r="AB222" s="10"/>
       <c r="AC222" s="9" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="AD222" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21567,13 +21567,13 @@
         <v>219</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G223" s="12">
         <v>22</v>
@@ -21642,7 +21642,7 @@
         <v>1</v>
       </c>
       <c r="AC223" s="9" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="AD223" s="10"/>
     </row>
@@ -21655,13 +21655,13 @@
         <v>220</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G224" s="12">
         <v>23</v>
@@ -21694,10 +21694,10 @@
       <c r="AA224" s="10"/>
       <c r="AB224" s="10"/>
       <c r="AC224" s="9" t="s">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AD224" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21709,10 +21709,10 @@
         <v>221</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>18</v>
@@ -21778,10 +21778,10 @@
       <c r="AA225" s="10"/>
       <c r="AB225" s="10"/>
       <c r="AC225" s="9" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="AD225" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21793,13 +21793,13 @@
         <v>222</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G226" s="12">
         <v>23</v>
@@ -21866,10 +21866,10 @@
         <v>1</v>
       </c>
       <c r="AC226" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD226" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21881,13 +21881,13 @@
         <v>223</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G227" s="12">
         <v>24</v>
@@ -21920,10 +21920,10 @@
       <c r="AA227" s="10"/>
       <c r="AB227" s="10"/>
       <c r="AC227" s="9" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="AD227" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21935,10 +21935,10 @@
         <v>224</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>18</v>
@@ -21974,10 +21974,10 @@
       <c r="AA228" s="10"/>
       <c r="AB228" s="10"/>
       <c r="AC228" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AD228" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -21989,13 +21989,13 @@
         <v>225</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G229" s="12">
         <v>23</v>
@@ -22028,10 +22028,10 @@
       <c r="AA229" s="10"/>
       <c r="AB229" s="10"/>
       <c r="AC229" s="9" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="AD229" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -22043,13 +22043,13 @@
         <v>226</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G230" s="12">
         <v>22</v>
@@ -22114,7 +22114,7 @@
         <v>1</v>
       </c>
       <c r="AC230" s="9" t="s">
-        <v>407</v>
+        <v>181</v>
       </c>
       <c r="AD230" s="10"/>
     </row>
@@ -22127,13 +22127,13 @@
         <v>227</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G231" s="12">
         <v>22</v>
@@ -22200,10 +22200,10 @@
         <v>6</v>
       </c>
       <c r="AC231" s="9" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="AD231" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22215,13 +22215,13 @@
         <v>228</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="G232" s="12">
         <v>23</v>
@@ -22286,10 +22286,10 @@
       <c r="AA232" s="10"/>
       <c r="AB232" s="10"/>
       <c r="AC232" s="9" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="AD232" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22301,13 +22301,13 @@
         <v>229</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G233" s="12">
         <v>22</v>
@@ -22370,10 +22370,10 @@
       <c r="AA233" s="10"/>
       <c r="AB233" s="10"/>
       <c r="AC233" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AD233" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -22385,13 +22385,13 @@
         <v>230</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G234" s="12">
         <v>22</v>
@@ -22454,10 +22454,10 @@
       <c r="AA234" s="10"/>
       <c r="AB234" s="10"/>
       <c r="AC234" s="9" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="AD234" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22469,13 +22469,13 @@
         <v>231</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G235" s="12">
         <v>21</v>
@@ -22538,10 +22538,10 @@
       <c r="AA235" s="10"/>
       <c r="AB235" s="10"/>
       <c r="AC235" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD235" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22553,13 +22553,13 @@
         <v>232</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G236" s="12">
         <v>23</v>
@@ -22592,10 +22592,10 @@
       <c r="AA236" s="10"/>
       <c r="AB236" s="10"/>
       <c r="AC236" s="9" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="AD236" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -22607,13 +22607,13 @@
         <v>233</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G237" s="12">
         <v>22</v>
@@ -22682,10 +22682,10 @@
         <v>1.5</v>
       </c>
       <c r="AC237" s="9" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AD237" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22697,10 +22697,10 @@
         <v>234</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>18</v>
@@ -22766,10 +22766,10 @@
       <c r="AA238" s="10"/>
       <c r="AB238" s="10"/>
       <c r="AC238" s="9" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AD238" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22781,13 +22781,13 @@
         <v>235</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="G239" s="12">
         <v>24</v>
@@ -22852,7 +22852,7 @@
       <c r="AA239" s="10"/>
       <c r="AB239" s="10"/>
       <c r="AC239" s="9" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="AD239" s="10"/>
     </row>
@@ -22865,13 +22865,13 @@
         <v>236</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G240" s="12">
         <v>22</v>
@@ -22936,10 +22936,10 @@
       <c r="AA240" s="10"/>
       <c r="AB240" s="10"/>
       <c r="AC240" s="9" t="s">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AD240" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -22951,13 +22951,13 @@
         <v>237</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G241" s="12">
         <v>23</v>
@@ -23022,10 +23022,10 @@
       <c r="AA241" s="10"/>
       <c r="AB241" s="10"/>
       <c r="AC241" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD241" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AD241" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="242" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23037,13 +23037,13 @@
         <v>238</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G242" s="12">
         <v>22</v>
@@ -23076,10 +23076,10 @@
       <c r="AA242" s="10"/>
       <c r="AB242" s="10"/>
       <c r="AC242" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AD242" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23091,13 +23091,13 @@
         <v>239</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="G243" s="12">
         <v>23</v>
@@ -23162,7 +23162,7 @@
       <c r="AA243" s="10"/>
       <c r="AB243" s="10"/>
       <c r="AC243" s="9" t="s">
-        <v>424</v>
+        <v>185</v>
       </c>
       <c r="AD243" s="10"/>
     </row>
@@ -23175,13 +23175,13 @@
         <v>240</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G244" s="12">
         <v>22</v>
@@ -23214,10 +23214,10 @@
       <c r="AA244" s="10"/>
       <c r="AB244" s="10"/>
       <c r="AC244" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD244" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23229,13 +23229,13 @@
         <v>241</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G245" s="12">
         <v>23</v>
@@ -23300,10 +23300,10 @@
       <c r="AA245" s="10"/>
       <c r="AB245" s="10"/>
       <c r="AC245" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD245" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23315,13 +23315,13 @@
         <v>242</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G246" s="12">
         <v>22</v>
@@ -23354,10 +23354,10 @@
       <c r="AA246" s="10"/>
       <c r="AB246" s="10"/>
       <c r="AC246" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AD246" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23369,13 +23369,13 @@
         <v>243</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G247" s="12">
         <v>22</v>
@@ -23408,10 +23408,10 @@
       <c r="AA247" s="10"/>
       <c r="AB247" s="10"/>
       <c r="AC247" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD247" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AD247" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23423,13 +23423,13 @@
         <v>244</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G248" s="12">
         <v>22</v>
@@ -23498,10 +23498,10 @@
         <v>0.5</v>
       </c>
       <c r="AC248" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD248" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23513,13 +23513,13 @@
         <v>245</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G249" s="12">
         <v>23</v>
@@ -23586,10 +23586,10 @@
       </c>
       <c r="AB249" s="10"/>
       <c r="AC249" s="9" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="AD249" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="250" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -23601,13 +23601,13 @@
         <v>246</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G250" s="12">
         <v>23</v>
@@ -23672,10 +23672,10 @@
       <c r="AA250" s="10"/>
       <c r="AB250" s="10"/>
       <c r="AC250" s="9" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="AD250" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23687,13 +23687,13 @@
         <v>247</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G251" s="12">
         <v>23</v>
@@ -23726,10 +23726,10 @@
       <c r="AA251" s="10"/>
       <c r="AB251" s="10"/>
       <c r="AC251" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AD251" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23741,13 +23741,13 @@
         <v>248</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G252" s="12">
         <v>24</v>
@@ -23810,10 +23810,10 @@
       <c r="AA252" s="10"/>
       <c r="AB252" s="10"/>
       <c r="AC252" s="9" t="s">
-        <v>434</v>
+        <v>186</v>
       </c>
       <c r="AD252" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23825,13 +23825,13 @@
         <v>249</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>435</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G253" s="12">
         <v>23</v>
@@ -23894,10 +23894,10 @@
       <c r="AA253" s="10"/>
       <c r="AB253" s="10"/>
       <c r="AC253" s="9" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="AD253" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23909,13 +23909,13 @@
         <v>250</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>436</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G254" s="12">
         <v>22</v>
@@ -23978,10 +23978,10 @@
       <c r="AA254" s="10"/>
       <c r="AB254" s="10"/>
       <c r="AC254" s="9" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="AD254" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="255" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -23993,13 +23993,13 @@
         <v>251</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>437</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G255" s="12">
         <v>23</v>
@@ -24064,10 +24064,10 @@
       <c r="AA255" s="10"/>
       <c r="AB255" s="10"/>
       <c r="AC255" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AD255" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:30" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -24079,13 +24079,13 @@
         <v>252</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>438</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G256" s="12">
         <v>23</v>
@@ -24118,7 +24118,7 @@
       <c r="AA256" s="10"/>
       <c r="AB256" s="10"/>
       <c r="AC256" s="9" t="s">
-        <v>439</v>
+        <v>187</v>
       </c>
       <c r="AD256" s="10"/>
     </row>
@@ -24131,13 +24131,13 @@
         <v>253</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G257" s="12">
         <v>22</v>
@@ -24202,10 +24202,10 @@
       <c r="AA257" s="10"/>
       <c r="AB257" s="10"/>
       <c r="AC257" s="9" t="s">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="AD257" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
